--- a/Code/Results/Cases/Case_5_139/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_139/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.66533272228717</v>
+        <v>15.1453803460577</v>
       </c>
       <c r="C2">
-        <v>14.24832001223679</v>
+        <v>11.09381386923738</v>
       </c>
       <c r="D2">
-        <v>4.61544606277371</v>
+        <v>4.991507198785488</v>
       </c>
       <c r="E2">
-        <v>7.396457116620724</v>
+        <v>12.33569114822264</v>
       </c>
       <c r="F2">
-        <v>17.94075544863034</v>
+        <v>24.49992230631182</v>
       </c>
       <c r="I2">
-        <v>12.9052933472408</v>
+        <v>22.19670225903991</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.274427599804048</v>
+        <v>10.03587379587387</v>
       </c>
       <c r="M2">
-        <v>12.38597331537084</v>
+        <v>14.53851040075913</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.18548401281</v>
+        <v>21.94641149117582</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.23224668600484</v>
+        <v>14.54781237916831</v>
       </c>
       <c r="C3">
-        <v>13.59617433360891</v>
+        <v>10.81483307787347</v>
       </c>
       <c r="D3">
-        <v>4.477763395327811</v>
+        <v>4.94668022060366</v>
       </c>
       <c r="E3">
-        <v>7.524347285356941</v>
+        <v>12.38353142493918</v>
       </c>
       <c r="F3">
-        <v>17.56054951122519</v>
+        <v>24.55419685818636</v>
       </c>
       <c r="I3">
-        <v>13.21805725136507</v>
+        <v>22.34220659126362</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -486,16 +486,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.193167311040184</v>
+        <v>10.04495477195745</v>
       </c>
       <c r="M3">
-        <v>11.75054362563321</v>
+        <v>14.40417993689605</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.14405344520627</v>
+        <v>22.04265431265349</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.30023904600109</v>
+        <v>14.16874570717541</v>
       </c>
       <c r="C4">
-        <v>13.17960113571642</v>
+        <v>10.63888572589539</v>
       </c>
       <c r="D4">
-        <v>4.390925990374883</v>
+        <v>4.91874607288396</v>
       </c>
       <c r="E4">
-        <v>7.605369700671178</v>
+        <v>12.41445368153827</v>
       </c>
       <c r="F4">
-        <v>17.34654968617733</v>
+        <v>24.59586488378161</v>
       </c>
       <c r="I4">
-        <v>13.42370852839381</v>
+        <v>22.43698940105832</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -527,16 +527,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.145809320683481</v>
+        <v>10.05196209405618</v>
       </c>
       <c r="M4">
-        <v>11.34551244050852</v>
+        <v>14.32267194227352</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.13719223141589</v>
+        <v>22.10802811107588</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.90727971518391</v>
+        <v>14.0114259447601</v>
       </c>
       <c r="C5">
-        <v>13.00592394627811</v>
+        <v>10.56608979466771</v>
       </c>
       <c r="D5">
-        <v>4.354993986826139</v>
+        <v>4.907265396023574</v>
       </c>
       <c r="E5">
-        <v>7.639026273307146</v>
+        <v>12.42744520871785</v>
       </c>
       <c r="F5">
-        <v>17.26422627695422</v>
+        <v>24.61493434888962</v>
       </c>
       <c r="I5">
-        <v>13.51076988391428</v>
+        <v>22.47698246070599</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.12715448680275</v>
+        <v>10.05517801652476</v>
       </c>
       <c r="M5">
-        <v>11.17688550028977</v>
+        <v>14.28972932047398</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.13886959505709</v>
+        <v>22.13624164720366</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.84123269019063</v>
+        <v>13.98513779574668</v>
       </c>
       <c r="C6">
-        <v>12.97685284442906</v>
+        <v>10.553938145621</v>
       </c>
       <c r="D6">
-        <v>4.348995616780565</v>
+        <v>4.90535333472902</v>
       </c>
       <c r="E6">
-        <v>7.64465385536436</v>
+        <v>12.42962605882853</v>
       </c>
       <c r="F6">
-        <v>17.25085080493234</v>
+        <v>24.61822674386162</v>
       </c>
       <c r="I6">
-        <v>13.52541856129963</v>
+        <v>22.48370591301035</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -609,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.124095913350723</v>
+        <v>10.0557337946026</v>
       </c>
       <c r="M6">
-        <v>11.14867480897417</v>
+        <v>14.28427650101864</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.13941236549828</v>
+        <v>22.14102132014259</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.29499281506402</v>
+        <v>14.16663526937799</v>
       </c>
       <c r="C7">
-        <v>13.17727453169134</v>
+        <v>10.63790831086821</v>
       </c>
       <c r="D7">
-        <v>4.390443559547041</v>
+        <v>4.918591626598002</v>
       </c>
       <c r="E7">
-        <v>7.605821001881226</v>
+        <v>12.41462730732299</v>
       </c>
       <c r="F7">
-        <v>17.34541969834316</v>
+        <v>24.59611361342521</v>
       </c>
       <c r="I7">
-        <v>13.42486968733527</v>
+        <v>22.43752322159789</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -650,16 +650,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.145555120564086</v>
+        <v>10.052004005457</v>
       </c>
       <c r="M7">
-        <v>11.34325250327006</v>
+        <v>14.3222265260409</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.13719700765033</v>
+        <v>22.10840224705852</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.18197694275077</v>
+        <v>14.94198064445215</v>
       </c>
       <c r="C8">
-        <v>14.02689007281987</v>
+        <v>10.99862959271919</v>
       </c>
       <c r="D8">
-        <v>4.568469335151856</v>
+        <v>4.976139494802282</v>
       </c>
       <c r="E8">
-        <v>7.44004227594008</v>
+        <v>12.35186586394249</v>
       </c>
       <c r="F8">
-        <v>17.80562657998215</v>
+        <v>24.51689968799357</v>
       </c>
       <c r="I8">
-        <v>13.01020269881492</v>
+        <v>22.24574236534089</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -691,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.245886744921878</v>
+        <v>10.03870805523311</v>
       </c>
       <c r="M8">
-        <v>12.17005493726798</v>
+        <v>14.4920087230655</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.1672264765019</v>
+        <v>21.97828893800851</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.47207573572605</v>
+        <v>16.35795579589243</v>
       </c>
       <c r="C9">
-        <v>15.5598161083204</v>
+        <v>11.66610024122555</v>
       </c>
       <c r="D9">
-        <v>4.898033978336438</v>
+        <v>5.08548238843728</v>
       </c>
       <c r="E9">
-        <v>7.134229099894787</v>
+        <v>12.24102123337154</v>
       </c>
       <c r="F9">
-        <v>18.86169356109646</v>
+        <v>24.42809738405583</v>
       </c>
       <c r="I9">
-        <v>12.31364318920611</v>
+        <v>21.91285814054458</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -732,16 +732,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.462442328154984</v>
+        <v>10.0239740412699</v>
       </c>
       <c r="M9">
-        <v>13.88489810919804</v>
+        <v>14.83140026703189</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.38187117034212</v>
+        <v>21.77323334470514</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.64369875930339</v>
+        <v>17.32542332544563</v>
       </c>
       <c r="C10">
-        <v>16.59969875764707</v>
+        <v>12.12851602970492</v>
       </c>
       <c r="D10">
-        <v>5.126742650606788</v>
+        <v>5.163344934550923</v>
       </c>
       <c r="E10">
-        <v>6.920514509835211</v>
+        <v>12.1669646859639</v>
       </c>
       <c r="F10">
-        <v>19.72919793666107</v>
+        <v>24.40380503533924</v>
       </c>
       <c r="I10">
-        <v>11.88673754193244</v>
+        <v>21.69464176256769</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -773,16 +773,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.633157126779651</v>
+        <v>10.02003269903116</v>
       </c>
       <c r="M10">
-        <v>15.05759513278629</v>
+        <v>15.08298202964175</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.64507507619466</v>
+        <v>21.65347172931441</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.57934385330049</v>
+        <v>17.74819780227867</v>
       </c>
       <c r="C11">
-        <v>17.05329708317021</v>
+        <v>12.3321343486555</v>
       </c>
       <c r="D11">
-        <v>5.227616782604839</v>
+        <v>5.198161007245979</v>
       </c>
       <c r="E11">
-        <v>6.825489083413963</v>
+        <v>12.13486120757229</v>
       </c>
       <c r="F11">
-        <v>20.14309974131733</v>
+        <v>24.40170436372912</v>
       </c>
       <c r="I11">
-        <v>11.71458500766415</v>
+        <v>21.60109831678488</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -814,16 +814,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.713236920437423</v>
+        <v>10.01972676734745</v>
       </c>
       <c r="M11">
-        <v>15.56438730221759</v>
+        <v>15.19755475806755</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.78970094552136</v>
+        <v>21.605769212011</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.92622601292445</v>
+        <v>17.90569467384247</v>
       </c>
       <c r="C12">
-        <v>17.2222261378473</v>
+        <v>12.408220856067</v>
       </c>
       <c r="D12">
-        <v>5.265342214254557</v>
+        <v>5.211252402036338</v>
       </c>
       <c r="E12">
-        <v>6.789805299484283</v>
+        <v>12.12293120608059</v>
       </c>
       <c r="F12">
-        <v>20.30254484350217</v>
+        <v>24.40219862726384</v>
       </c>
       <c r="I12">
-        <v>11.65291786846358</v>
+        <v>21.56649994658942</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -855,16 +855,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.743900347108034</v>
+        <v>10.01982394753599</v>
       </c>
       <c r="M12">
-        <v>15.75249481492508</v>
+        <v>15.24092842233447</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.8481883781034</v>
+        <v>21.58868577796178</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.85184761978801</v>
+        <v>17.87189201278609</v>
       </c>
       <c r="C13">
-        <v>17.18597102344885</v>
+        <v>12.39188035618757</v>
       </c>
       <c r="D13">
-        <v>5.257238680706102</v>
+        <v>5.20843715027572</v>
       </c>
       <c r="E13">
-        <v>6.797477337776527</v>
+        <v>12.12549047124349</v>
       </c>
       <c r="F13">
-        <v>20.26808593202774</v>
+        <v>24.40203478763351</v>
       </c>
       <c r="I13">
-        <v>11.66603623223326</v>
+        <v>21.57391463169346</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.737281493804462</v>
+        <v>10.01979355709598</v>
       </c>
       <c r="M13">
-        <v>15.71215109866186</v>
+        <v>15.23158817200982</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.83542448965263</v>
+        <v>21.59232130345647</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.6080303891183</v>
+        <v>17.76120780072247</v>
       </c>
       <c r="C14">
-        <v>17.06725206379554</v>
+        <v>12.33841473345342</v>
       </c>
       <c r="D14">
-        <v>5.230730058020617</v>
+        <v>5.199239934953813</v>
       </c>
       <c r="E14">
-        <v>6.822547429362902</v>
+        <v>12.1338751780338</v>
       </c>
       <c r="F14">
-        <v>20.15616342668238</v>
+        <v>24.40171916775638</v>
       </c>
       <c r="I14">
-        <v>11.70943883531664</v>
+        <v>21.59823535555532</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -937,16 +937,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.71575287624097</v>
+        <v>10.01973049785775</v>
       </c>
       <c r="M14">
-        <v>15.57993904930866</v>
+        <v>15.20112356201832</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.79443741593028</v>
+        <v>21.60434406471</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.45772076807581</v>
+        <v>17.69306920776175</v>
       </c>
       <c r="C15">
-        <v>16.99416256633634</v>
+        <v>12.3055313274298</v>
       </c>
       <c r="D15">
-        <v>5.214430620472388</v>
+        <v>5.193594131999339</v>
       </c>
       <c r="E15">
-        <v>6.837942222621689</v>
+        <v>12.13904056929291</v>
       </c>
       <c r="F15">
-        <v>20.0879587309407</v>
+        <v>24.40169386266032</v>
       </c>
       <c r="I15">
-        <v>11.7364941930987</v>
+        <v>21.61323991821912</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.70260985582413</v>
+        <v>10.0197195898902</v>
       </c>
       <c r="M15">
-        <v>15.498461042553</v>
+        <v>15.18246056745505</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.76982014066574</v>
+        <v>21.61183620975244</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.58150820791624</v>
+        <v>17.2974358157285</v>
       </c>
       <c r="C16">
-        <v>16.56965976307475</v>
+        <v>12.11506909982274</v>
       </c>
       <c r="D16">
-        <v>5.120084961007204</v>
+        <v>5.16105696607658</v>
       </c>
       <c r="E16">
-        <v>6.926767515437204</v>
+        <v>12.16909453130305</v>
       </c>
       <c r="F16">
-        <v>19.70253093814618</v>
+        <v>24.40412268095938</v>
       </c>
       <c r="I16">
-        <v>11.89846100762796</v>
+        <v>21.70087034708135</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1019,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.627971640539207</v>
+        <v>10.02008254825901</v>
       </c>
       <c r="M16">
-        <v>15.023940934603</v>
+        <v>15.07549434672858</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.63613675120307</v>
+        <v>21.65672609030289</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.03066043170167</v>
+        <v>17.05020785426925</v>
       </c>
       <c r="C17">
-        <v>16.30422525756789</v>
+        <v>11.99646373021664</v>
       </c>
       <c r="D17">
-        <v>5.061382170409264</v>
+        <v>5.140937574740219</v>
       </c>
       <c r="E17">
-        <v>6.981810388886886</v>
+        <v>12.18793691627085</v>
       </c>
       <c r="F17">
-        <v>19.47097475157553</v>
+        <v>24.407907367413</v>
       </c>
       <c r="I17">
-        <v>12.00370769673944</v>
+        <v>21.75609582839667</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.582796851990083</v>
+        <v>10.02068552634801</v>
       </c>
       <c r="M17">
-        <v>14.72602740546748</v>
+        <v>15.00988453547242</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.56060716026606</v>
+        <v>21.68600473278964</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.70890520573466</v>
+        <v>16.9063828699717</v>
       </c>
       <c r="C18">
-        <v>16.14972524559327</v>
+        <v>11.92761366492989</v>
       </c>
       <c r="D18">
-        <v>5.027320720760438</v>
+        <v>5.129308924387944</v>
       </c>
       <c r="E18">
-        <v>7.013677104244118</v>
+        <v>12.1989238288203</v>
       </c>
       <c r="F18">
-        <v>19.3396072671804</v>
+        <v>24.41092655797131</v>
       </c>
       <c r="I18">
-        <v>12.06629459471605</v>
+        <v>21.78839877167468</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.557041890065453</v>
+        <v>10.02117236036835</v>
       </c>
       <c r="M18">
-        <v>14.5521624924563</v>
+        <v>14.97216127987251</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.51950009578692</v>
+        <v>21.70348264058424</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.59911649655648</v>
+        <v>16.85741043344856</v>
       </c>
       <c r="C19">
-        <v>16.09710155216517</v>
+        <v>11.90419539091005</v>
       </c>
       <c r="D19">
-        <v>5.015737658513124</v>
+        <v>5.125362137911709</v>
       </c>
       <c r="E19">
-        <v>7.024502718589395</v>
+        <v>12.20266947862097</v>
       </c>
       <c r="F19">
-        <v>19.29544255179693</v>
+        <v>24.41209337161257</v>
       </c>
       <c r="I19">
-        <v>12.08782776232603</v>
+        <v>21.79942847740902</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.548361215033442</v>
+        <v>10.02136126506296</v>
       </c>
       <c r="M19">
-        <v>14.4928623409783</v>
+        <v>14.95939214259243</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.50597854128181</v>
+        <v>21.70950968738884</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.08980793685902</v>
+        <v>17.07669479760098</v>
       </c>
       <c r="C20">
-        <v>16.33267086684698</v>
+        <v>12.0091552022615</v>
       </c>
       <c r="D20">
-        <v>5.067662077029495</v>
+        <v>5.143085209449005</v>
       </c>
       <c r="E20">
-        <v>6.975929612515425</v>
+        <v>12.18591567095613</v>
       </c>
       <c r="F20">
-        <v>19.49543664957769</v>
+        <v>24.4074172781124</v>
       </c>
       <c r="I20">
-        <v>11.99228923125259</v>
+        <v>21.75016121801048</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.587582216886576</v>
+        <v>10.02060685260022</v>
       </c>
       <c r="M20">
-        <v>14.75800067422782</v>
+        <v>15.01686761057632</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.56840462334978</v>
+        <v>21.68282193821559</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.67984626856751</v>
+        <v>17.79378973575117</v>
       </c>
       <c r="C21">
-        <v>17.10220001101021</v>
+        <v>12.35414692718705</v>
       </c>
       <c r="D21">
-        <v>5.238529261496087</v>
+        <v>5.20194394171131</v>
       </c>
       <c r="E21">
-        <v>6.815175712018672</v>
+        <v>12.13140623712737</v>
       </c>
       <c r="F21">
-        <v>20.18896472205927</v>
+        <v>24.40177685447382</v>
       </c>
       <c r="I21">
-        <v>11.69659180109513</v>
+        <v>21.5910693811938</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.722067224052402</v>
+        <v>10.01974324509751</v>
       </c>
       <c r="M21">
-        <v>15.61887588186127</v>
+        <v>15.21007234049054</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.80637428057932</v>
+        <v>21.60078603295712</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.67578438053909</v>
+        <v>18.24726689532443</v>
       </c>
       <c r="C22">
-        <v>17.58857501361064</v>
+        <v>12.57365729951382</v>
       </c>
       <c r="D22">
-        <v>5.347434995756901</v>
+        <v>5.23986860447826</v>
       </c>
       <c r="E22">
-        <v>6.711856326733659</v>
+        <v>12.09710316684529</v>
       </c>
       <c r="F22">
-        <v>20.65799267510087</v>
+        <v>24.40560844671403</v>
       </c>
       <c r="I22">
-        <v>11.52406642552167</v>
+        <v>21.49190022235826</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.811932864942902</v>
+        <v>10.02042009936728</v>
       </c>
       <c r="M22">
-        <v>16.15935547407707</v>
+        <v>15.33625568715754</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.98364386382636</v>
+        <v>21.55288833282459</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.14816104196173</v>
+        <v>18.00665839134718</v>
       </c>
       <c r="C23">
-        <v>17.33051288144328</v>
+        <v>12.45706149036353</v>
       </c>
       <c r="D23">
-        <v>5.28956828318795</v>
+        <v>5.219679071771859</v>
       </c>
       <c r="E23">
-        <v>6.766845646766361</v>
+        <v>12.1152907473347</v>
       </c>
       <c r="F23">
-        <v>20.40624032198726</v>
+        <v>24.40287500108353</v>
       </c>
       <c r="I23">
-        <v>11.61412228951012</v>
+        <v>21.54438838692634</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.763792297135883</v>
+        <v>10.0199455586241</v>
       </c>
       <c r="M23">
-        <v>15.87290629458677</v>
+        <v>15.26892730825576</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.88699942122507</v>
+        <v>21.57792720897513</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.06308313409256</v>
+        <v>17.06472530731554</v>
       </c>
       <c r="C24">
-        <v>16.31981651596119</v>
+        <v>12.00341944669179</v>
       </c>
       <c r="D24">
-        <v>5.064823903005045</v>
+        <v>5.142114455664979</v>
       </c>
       <c r="E24">
-        <v>6.978587619403676</v>
+        <v>12.18682899564037</v>
       </c>
       <c r="F24">
-        <v>19.4843719473055</v>
+        <v>24.40763622079594</v>
       </c>
       <c r="I24">
-        <v>11.99744506950579</v>
+        <v>21.75284253262479</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.5854180779706</v>
+        <v>10.02064198431525</v>
       </c>
       <c r="M24">
-        <v>14.74355363047056</v>
+        <v>15.01371057024489</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.56487218763625</v>
+        <v>21.68425887022205</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.62549022355839</v>
+        <v>15.98710838541664</v>
       </c>
       <c r="C25">
-        <v>15.15998444813567</v>
+        <v>11.49019986289859</v>
       </c>
       <c r="D25">
-        <v>4.811137937723344</v>
+        <v>5.05631250487631</v>
       </c>
       <c r="E25">
-        <v>7.214974740614194</v>
+        <v>12.26970607836615</v>
       </c>
       <c r="F25">
-        <v>18.55971318161583</v>
+        <v>24.44495288600158</v>
       </c>
       <c r="I25">
-        <v>12.48828969819336</v>
+        <v>21.99828599568501</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.401783654809427</v>
+        <v>10.02674872057311</v>
       </c>
       <c r="M25">
-        <v>13.42921010287001</v>
+        <v>14.73907054651487</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.30599145885206</v>
+        <v>21.82330608012984</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_139/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_139/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.1453803460577</v>
+        <v>21.66533272228718</v>
       </c>
       <c r="C2">
-        <v>11.09381386923738</v>
+        <v>14.2483200122366</v>
       </c>
       <c r="D2">
-        <v>4.991507198785488</v>
+        <v>4.615446062773593</v>
       </c>
       <c r="E2">
-        <v>12.33569114822264</v>
+        <v>7.396457116620724</v>
       </c>
       <c r="F2">
-        <v>24.49992230631182</v>
+        <v>17.9407554486304</v>
       </c>
       <c r="I2">
-        <v>22.19670225903991</v>
+        <v>12.90529334724075</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.03587379587387</v>
+        <v>6.274427599804044</v>
       </c>
       <c r="M2">
-        <v>14.53851040075913</v>
+        <v>12.38597331537084</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.94641149117582</v>
+        <v>14.18548401281006</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.54781237916831</v>
+        <v>20.23224668600474</v>
       </c>
       <c r="C3">
-        <v>10.81483307787347</v>
+        <v>13.59617433360903</v>
       </c>
       <c r="D3">
-        <v>4.94668022060366</v>
+        <v>4.477763395327851</v>
       </c>
       <c r="E3">
-        <v>12.38353142493918</v>
+        <v>7.524347285356739</v>
       </c>
       <c r="F3">
-        <v>24.55419685818636</v>
+        <v>17.56054951122551</v>
       </c>
       <c r="I3">
-        <v>22.34220659126362</v>
+        <v>13.21805725136543</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -486,16 +486,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.04495477195745</v>
+        <v>6.193167311040079</v>
       </c>
       <c r="M3">
-        <v>14.40417993689605</v>
+        <v>11.75054362563323</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.04265431265349</v>
+        <v>14.14405344520662</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.16874570717541</v>
+        <v>19.3002390460011</v>
       </c>
       <c r="C4">
-        <v>10.63888572589539</v>
+        <v>13.17960113571629</v>
       </c>
       <c r="D4">
-        <v>4.91874607288396</v>
+        <v>4.390925990374993</v>
       </c>
       <c r="E4">
-        <v>12.41445368153827</v>
+        <v>7.605369700671044</v>
       </c>
       <c r="F4">
-        <v>24.59586488378161</v>
+        <v>17.34654968617733</v>
       </c>
       <c r="I4">
-        <v>22.43698940105832</v>
+        <v>13.42370852839382</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -527,16 +527,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.05196209405618</v>
+        <v>6.145809320683429</v>
       </c>
       <c r="M4">
-        <v>14.32267194227352</v>
+        <v>11.34551244050848</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.10802811107588</v>
+        <v>14.13719223141593</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.0114259447601</v>
+        <v>18.90727971518392</v>
       </c>
       <c r="C5">
-        <v>10.56608979466771</v>
+        <v>13.00592394627824</v>
       </c>
       <c r="D5">
-        <v>4.907265396023574</v>
+        <v>4.354993986826136</v>
       </c>
       <c r="E5">
-        <v>12.42744520871785</v>
+        <v>7.639026273307281</v>
       </c>
       <c r="F5">
-        <v>24.61493434888962</v>
+        <v>17.26422627695424</v>
       </c>
       <c r="I5">
-        <v>22.47698246070599</v>
+        <v>13.51076988391434</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.05517801652476</v>
+        <v>6.127154486802778</v>
       </c>
       <c r="M5">
-        <v>14.28972932047398</v>
+        <v>11.17688550028977</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.13624164720366</v>
+        <v>14.13886959505711</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.98513779574668</v>
+        <v>18.84123269019064</v>
       </c>
       <c r="C6">
-        <v>10.553938145621</v>
+        <v>12.97685284442899</v>
       </c>
       <c r="D6">
-        <v>4.90535333472902</v>
+        <v>4.34899561678055</v>
       </c>
       <c r="E6">
-        <v>12.42962605882853</v>
+        <v>7.644653855364291</v>
       </c>
       <c r="F6">
-        <v>24.61822674386162</v>
+        <v>17.25085080493239</v>
       </c>
       <c r="I6">
-        <v>22.48370591301035</v>
+        <v>13.52541856129965</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -609,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.0557337946026</v>
+        <v>6.12409591335065</v>
       </c>
       <c r="M6">
-        <v>14.28427650101864</v>
+        <v>11.14867480897416</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.14102132014259</v>
+        <v>14.13941236549833</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.16663526937799</v>
+        <v>19.29499281506394</v>
       </c>
       <c r="C7">
-        <v>10.63790831086821</v>
+        <v>13.17727453169154</v>
       </c>
       <c r="D7">
-        <v>4.918591626598002</v>
+        <v>4.3904435595469</v>
       </c>
       <c r="E7">
-        <v>12.41462730732299</v>
+        <v>7.605821001881361</v>
       </c>
       <c r="F7">
-        <v>24.59611361342521</v>
+        <v>17.34541969834338</v>
       </c>
       <c r="I7">
-        <v>22.43752322159789</v>
+        <v>13.42486968733552</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -650,16 +650,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.052004005457</v>
+        <v>6.145555120564135</v>
       </c>
       <c r="M7">
-        <v>14.3222265260409</v>
+        <v>11.3432525032701</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.10840224705852</v>
+        <v>14.13719700765047</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.94198064445215</v>
+        <v>21.18197694275083</v>
       </c>
       <c r="C8">
-        <v>10.99862959271919</v>
+        <v>14.02689007281979</v>
       </c>
       <c r="D8">
-        <v>4.976139494802282</v>
+        <v>4.568469335151884</v>
       </c>
       <c r="E8">
-        <v>12.35186586394249</v>
+        <v>7.440042275940015</v>
       </c>
       <c r="F8">
-        <v>24.51689968799357</v>
+        <v>17.80562657998198</v>
       </c>
       <c r="I8">
-        <v>22.24574236534089</v>
+        <v>13.01020269881472</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -691,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.03870805523311</v>
+        <v>6.245886744921904</v>
       </c>
       <c r="M8">
-        <v>14.4920087230655</v>
+        <v>12.17005493726796</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.97828893800851</v>
+        <v>14.16722647650178</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.35795579589243</v>
+        <v>24.47207573572613</v>
       </c>
       <c r="C9">
-        <v>11.66610024122555</v>
+        <v>15.55981610832031</v>
       </c>
       <c r="D9">
-        <v>5.08548238843728</v>
+        <v>4.898033978336416</v>
       </c>
       <c r="E9">
-        <v>12.24102123337154</v>
+        <v>7.134229099894855</v>
       </c>
       <c r="F9">
-        <v>24.42809738405583</v>
+        <v>18.86169356109624</v>
       </c>
       <c r="I9">
-        <v>21.91285814054458</v>
+        <v>12.31364318920571</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -732,16 +732,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.0239740412699</v>
+        <v>6.462442328155052</v>
       </c>
       <c r="M9">
-        <v>14.83140026703189</v>
+        <v>13.88489810919806</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.77323334470514</v>
+        <v>14.38187117034187</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.32542332544563</v>
+        <v>26.64369875930344</v>
       </c>
       <c r="C10">
-        <v>12.12851602970492</v>
+        <v>16.59969875764707</v>
       </c>
       <c r="D10">
-        <v>5.163344934550923</v>
+        <v>5.126742650606833</v>
       </c>
       <c r="E10">
-        <v>12.1669646859639</v>
+        <v>6.920514509835211</v>
       </c>
       <c r="F10">
-        <v>24.40380503533924</v>
+        <v>19.72919793666105</v>
       </c>
       <c r="I10">
-        <v>21.69464176256769</v>
+        <v>11.88673754193237</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -773,16 +773,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.02003269903116</v>
+        <v>6.633157126779635</v>
       </c>
       <c r="M10">
-        <v>15.08298202964175</v>
+        <v>15.05759513278631</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.65347172931441</v>
+        <v>14.64507507619463</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.74819780227867</v>
+        <v>27.57934385330052</v>
       </c>
       <c r="C11">
-        <v>12.3321343486555</v>
+        <v>17.05329708317002</v>
       </c>
       <c r="D11">
-        <v>5.198161007245979</v>
+        <v>5.227616782604893</v>
       </c>
       <c r="E11">
-        <v>12.13486120757229</v>
+        <v>6.825489083413963</v>
       </c>
       <c r="F11">
-        <v>24.40170436372912</v>
+        <v>20.14309974131736</v>
       </c>
       <c r="I11">
-        <v>21.60109831678488</v>
+        <v>11.71458500766411</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -814,16 +814,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.01972676734745</v>
+        <v>6.713236920437455</v>
       </c>
       <c r="M11">
-        <v>15.19755475806755</v>
+        <v>15.56438730221759</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.605769212011</v>
+        <v>14.78970094552137</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.90569467384247</v>
+        <v>27.92622601292447</v>
       </c>
       <c r="C12">
-        <v>12.408220856067</v>
+        <v>17.22222613784739</v>
       </c>
       <c r="D12">
-        <v>5.211252402036338</v>
+        <v>5.265342214254614</v>
       </c>
       <c r="E12">
-        <v>12.12293120608059</v>
+        <v>6.789805299484283</v>
       </c>
       <c r="F12">
-        <v>24.40219862726384</v>
+        <v>20.30254484350207</v>
       </c>
       <c r="I12">
-        <v>21.56649994658942</v>
+        <v>11.6529178684635</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -855,16 +855,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.01982394753599</v>
+        <v>6.743900347108017</v>
       </c>
       <c r="M12">
-        <v>15.24092842233447</v>
+        <v>15.7524948149251</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.58868577796178</v>
+        <v>14.84818837810331</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.87189201278609</v>
+        <v>27.85184761978803</v>
       </c>
       <c r="C13">
-        <v>12.39188035618757</v>
+        <v>17.18597102344876</v>
       </c>
       <c r="D13">
-        <v>5.20843715027572</v>
+        <v>5.257238680706064</v>
       </c>
       <c r="E13">
-        <v>12.12549047124349</v>
+        <v>6.797477337776393</v>
       </c>
       <c r="F13">
-        <v>24.40203478763351</v>
+        <v>20.26808593202779</v>
       </c>
       <c r="I13">
-        <v>21.57391463169346</v>
+        <v>11.66603623223322</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.01979355709598</v>
+        <v>6.737281493804486</v>
       </c>
       <c r="M13">
-        <v>15.23158817200982</v>
+        <v>15.71215109866188</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.59232130345647</v>
+        <v>14.83542448965266</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.76120780072247</v>
+        <v>27.6080303891183</v>
       </c>
       <c r="C14">
-        <v>12.33841473345342</v>
+        <v>17.06725206379536</v>
       </c>
       <c r="D14">
-        <v>5.199239934953813</v>
+        <v>5.230730058020685</v>
       </c>
       <c r="E14">
-        <v>12.1338751780338</v>
+        <v>6.822547429362835</v>
       </c>
       <c r="F14">
-        <v>24.40171916775638</v>
+        <v>20.15616342668245</v>
       </c>
       <c r="I14">
-        <v>21.59823535555532</v>
+        <v>11.70943883531669</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -937,16 +937,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.01973049785775</v>
+        <v>6.715752876240987</v>
       </c>
       <c r="M14">
-        <v>15.20112356201832</v>
+        <v>15.57993904930865</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.60434406471</v>
+        <v>14.79443741593035</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.69306920776175</v>
+        <v>27.45772076807586</v>
       </c>
       <c r="C15">
-        <v>12.3055313274298</v>
+        <v>16.99416256633625</v>
       </c>
       <c r="D15">
-        <v>5.193594131999339</v>
+        <v>5.214430620472312</v>
       </c>
       <c r="E15">
-        <v>12.13904056929291</v>
+        <v>6.837942222621692</v>
       </c>
       <c r="F15">
-        <v>24.40169386266032</v>
+        <v>20.08795873094068</v>
       </c>
       <c r="I15">
-        <v>21.61323991821912</v>
+        <v>11.73649419309856</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.0197195898902</v>
+        <v>6.702609855824143</v>
       </c>
       <c r="M15">
-        <v>15.18246056745505</v>
+        <v>15.498461042553</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.61183620975244</v>
+        <v>14.76982014066568</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.2974358157285</v>
+        <v>26.58150820791622</v>
       </c>
       <c r="C16">
-        <v>12.11506909982274</v>
+        <v>16.5696597630748</v>
       </c>
       <c r="D16">
-        <v>5.16105696607658</v>
+        <v>5.120084961007023</v>
       </c>
       <c r="E16">
-        <v>12.16909453130305</v>
+        <v>6.926767515437138</v>
       </c>
       <c r="F16">
-        <v>24.40412268095938</v>
+        <v>19.70253093814613</v>
       </c>
       <c r="I16">
-        <v>21.70087034708135</v>
+        <v>11.8984610076278</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1019,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.02008254825901</v>
+        <v>6.627971640539212</v>
       </c>
       <c r="M16">
-        <v>15.07549434672858</v>
+        <v>15.023940934603</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.65672609030289</v>
+        <v>14.63613675120297</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.05020785426925</v>
+        <v>26.03066043170167</v>
       </c>
       <c r="C17">
-        <v>11.99646373021664</v>
+        <v>16.30422525756781</v>
       </c>
       <c r="D17">
-        <v>5.140937574740219</v>
+        <v>5.061382170409416</v>
       </c>
       <c r="E17">
-        <v>12.18793691627085</v>
+        <v>6.981810388886887</v>
       </c>
       <c r="F17">
-        <v>24.407907367413</v>
+        <v>19.47097475157552</v>
       </c>
       <c r="I17">
-        <v>21.75609582839667</v>
+        <v>12.00370769673938</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.02068552634801</v>
+        <v>6.582796851990041</v>
       </c>
       <c r="M17">
-        <v>15.00988453547242</v>
+        <v>14.7260274054675</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.68600473278964</v>
+        <v>14.56060716026604</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.9063828699717</v>
+        <v>25.70890520573467</v>
       </c>
       <c r="C18">
-        <v>11.92761366492989</v>
+        <v>16.14972524559321</v>
       </c>
       <c r="D18">
-        <v>5.129308924387944</v>
+        <v>5.027320720760433</v>
       </c>
       <c r="E18">
-        <v>12.1989238288203</v>
+        <v>7.013677104244252</v>
       </c>
       <c r="F18">
-        <v>24.41092655797131</v>
+        <v>19.33960726718039</v>
       </c>
       <c r="I18">
-        <v>21.78839877167468</v>
+        <v>12.06629459471599</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.02117236036835</v>
+        <v>6.557041890065506</v>
       </c>
       <c r="M18">
-        <v>14.97216127987251</v>
+        <v>14.55216249245627</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.70348264058424</v>
+        <v>14.51950009578693</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.85741043344856</v>
+        <v>25.59911649655643</v>
       </c>
       <c r="C19">
-        <v>11.90419539091005</v>
+        <v>16.09710155216523</v>
       </c>
       <c r="D19">
-        <v>5.125362137911709</v>
+        <v>5.015737658513132</v>
       </c>
       <c r="E19">
-        <v>12.20266947862097</v>
+        <v>7.024502718589395</v>
       </c>
       <c r="F19">
-        <v>24.41209337161257</v>
+        <v>19.29544255179704</v>
       </c>
       <c r="I19">
-        <v>21.79942847740902</v>
+        <v>12.08782776232618</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.02136126506296</v>
+        <v>6.548361215033421</v>
       </c>
       <c r="M19">
-        <v>14.95939214259243</v>
+        <v>14.49286234097829</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.70950968738884</v>
+        <v>14.50597854128191</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.07669479760098</v>
+        <v>26.0898079368591</v>
       </c>
       <c r="C20">
-        <v>12.0091552022615</v>
+        <v>16.33267086684687</v>
       </c>
       <c r="D20">
-        <v>5.143085209449005</v>
+        <v>5.067662077029536</v>
       </c>
       <c r="E20">
-        <v>12.18591567095613</v>
+        <v>6.975929612515425</v>
       </c>
       <c r="F20">
-        <v>24.4074172781124</v>
+        <v>19.49543664957751</v>
       </c>
       <c r="I20">
-        <v>21.75016121801048</v>
+        <v>11.99228923125231</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.02060685260022</v>
+        <v>6.587582216886623</v>
       </c>
       <c r="M20">
-        <v>15.01686761057632</v>
+        <v>14.75800067422786</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.68282193821559</v>
+        <v>14.5684046233496</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.79378973575117</v>
+        <v>27.67984626856747</v>
       </c>
       <c r="C21">
-        <v>12.35414692718705</v>
+        <v>17.10220001101014</v>
       </c>
       <c r="D21">
-        <v>5.20194394171131</v>
+        <v>5.238529261496045</v>
       </c>
       <c r="E21">
-        <v>12.13140623712737</v>
+        <v>6.815175712018738</v>
       </c>
       <c r="F21">
-        <v>24.40177685447382</v>
+        <v>20.18896472205931</v>
       </c>
       <c r="I21">
-        <v>21.5910693811938</v>
+        <v>11.69659180109526</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.01974324509751</v>
+        <v>6.722067224052411</v>
       </c>
       <c r="M21">
-        <v>15.21007234049054</v>
+        <v>15.61887588186123</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.60078603295712</v>
+        <v>14.80637428057939</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.24726689532443</v>
+        <v>28.67578438053908</v>
       </c>
       <c r="C22">
-        <v>12.57365729951382</v>
+        <v>17.58857501361053</v>
       </c>
       <c r="D22">
-        <v>5.23986860447826</v>
+        <v>5.347434995756895</v>
       </c>
       <c r="E22">
-        <v>12.09710316684529</v>
+        <v>6.711856326733727</v>
       </c>
       <c r="F22">
-        <v>24.40560844671403</v>
+        <v>20.6579926751009</v>
       </c>
       <c r="I22">
-        <v>21.49190022235826</v>
+        <v>11.5240664255217</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.02042009936728</v>
+        <v>6.81193286494292</v>
       </c>
       <c r="M22">
-        <v>15.33625568715754</v>
+        <v>16.15935547407707</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.55288833282459</v>
+        <v>14.9836438638264</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.00665839134718</v>
+        <v>28.14816104196176</v>
       </c>
       <c r="C23">
-        <v>12.45706149036353</v>
+        <v>17.33051288144333</v>
       </c>
       <c r="D23">
-        <v>5.219679071771859</v>
+        <v>5.289568283187992</v>
       </c>
       <c r="E23">
-        <v>12.1152907473347</v>
+        <v>6.76684564676643</v>
       </c>
       <c r="F23">
-        <v>24.40287500108353</v>
+        <v>20.40624032198721</v>
       </c>
       <c r="I23">
-        <v>21.54438838692634</v>
+        <v>11.61412228951015</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.0199455586241</v>
+        <v>6.763792297135843</v>
       </c>
       <c r="M23">
-        <v>15.26892730825576</v>
+        <v>15.87290629458677</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.57792720897513</v>
+        <v>14.88699942122505</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.06472530731554</v>
+        <v>26.0630831340925</v>
       </c>
       <c r="C24">
-        <v>12.00341944669179</v>
+        <v>16.31981651596113</v>
       </c>
       <c r="D24">
-        <v>5.142114455664979</v>
+        <v>5.064823903005125</v>
       </c>
       <c r="E24">
-        <v>12.18682899564037</v>
+        <v>6.97858761940381</v>
       </c>
       <c r="F24">
-        <v>24.40763622079594</v>
+        <v>19.48437194730552</v>
       </c>
       <c r="I24">
-        <v>21.75284253262479</v>
+        <v>11.99744506950579</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.02064198431525</v>
+        <v>6.585418077970592</v>
       </c>
       <c r="M24">
-        <v>15.01371057024489</v>
+        <v>14.74355363047053</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.68425887022205</v>
+        <v>14.56487218763626</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.98710838541664</v>
+        <v>23.62549022355836</v>
       </c>
       <c r="C25">
-        <v>11.49019986289859</v>
+        <v>15.15998444813574</v>
       </c>
       <c r="D25">
-        <v>5.05631250487631</v>
+        <v>4.811137937723272</v>
       </c>
       <c r="E25">
-        <v>12.26970607836615</v>
+        <v>7.214974740614194</v>
       </c>
       <c r="F25">
-        <v>24.44495288600158</v>
+        <v>18.55971318161589</v>
       </c>
       <c r="I25">
-        <v>21.99828599568501</v>
+        <v>12.4882896981934</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.02674872057311</v>
+        <v>6.401783654809382</v>
       </c>
       <c r="M25">
-        <v>14.73907054651487</v>
+        <v>13.42921010286998</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.82330608012984</v>
+        <v>14.3059914588521</v>
       </c>
     </row>
   </sheetData>
